--- a/Documents/Database Schemas.xlsx
+++ b/Documents/Database Schemas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnr\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnr\Documents\Coding\Web-Development-Project\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>Users</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>./folder/file.php</t>
+  </si>
+  <si>
+    <t>File_type</t>
+  </si>
+  <si>
+    <t>PDF</t>
   </si>
 </sst>
 </file>
@@ -190,7 +196,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -209,21 +215,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -506,34 +497,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -552,6 +515,32 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thick">
         <color indexed="64"/>
       </bottom>
@@ -562,60 +551,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -931,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:BJ21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,10 +939,11 @@
     <col min="14" max="14" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.85546875" style="45" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.5703125" customWidth="1"/>
+    <col min="22" max="22" width="15.85546875" style="42" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:62" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -965,7 +952,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="33" t="s">
         <v>15</v>
       </c>
       <c r="I1" s="6"/>
@@ -975,7 +962,7 @@
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
-      <c r="P1" s="34" t="s">
+      <c r="P1" s="33" t="s">
         <v>29</v>
       </c>
       <c r="Q1" s="6"/>
@@ -984,9 +971,10 @@
       <c r="T1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="52"/>
-    </row>
-    <row r="2" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U1" s="4"/>
+      <c r="V1" s="46"/>
+    </row>
+    <row r="2" spans="1:62" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1006,25 +994,25 @@
         <v>6</v>
       </c>
       <c r="G2" s="6"/>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="J2" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="41" t="s">
+      <c r="L2" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="41" t="s">
+      <c r="M2" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="36" t="s">
+      <c r="N2" s="34" t="s">
         <v>28</v>
       </c>
       <c r="O2" s="6"/>
@@ -1038,15 +1026,19 @@
         <v>30</v>
       </c>
       <c r="S2" s="6"/>
-      <c r="T2" s="48" t="s">
+      <c r="T2" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="49" t="s">
+      <c r="U2" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="V2" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="W2" s="6"/>
-    </row>
-    <row r="3" spans="1:23" s="9" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+    </row>
+    <row r="3" spans="1:62" s="9" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>15167798</v>
       </c>
@@ -1069,13 +1061,13 @@
       <c r="H3" s="26">
         <v>123</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="37" t="s">
+      <c r="K3" s="35" t="s">
         <v>24</v>
       </c>
       <c r="L3" s="27">
@@ -1087,7 +1079,7 @@
       <c r="N3" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="O3" s="44"/>
+      <c r="O3" s="41"/>
       <c r="P3" s="8">
         <v>123</v>
       </c>
@@ -1098,16 +1090,57 @@
         <v>1111111</v>
       </c>
       <c r="S3" s="8"/>
-      <c r="T3" s="46">
+      <c r="T3" s="47">
         <v>123</v>
       </c>
-      <c r="U3" s="51" t="s">
+      <c r="U3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="V3" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="V3" s="8"/>
       <c r="W3" s="8"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="8"/>
+      <c r="AQ3" s="8"/>
+      <c r="AR3" s="8"/>
+      <c r="AS3" s="8"/>
+      <c r="AT3" s="8"/>
+      <c r="AU3" s="8"/>
+      <c r="AV3" s="8"/>
+      <c r="AW3" s="8"/>
+      <c r="AX3" s="8"/>
+      <c r="AY3" s="8"/>
+      <c r="AZ3" s="8"/>
+      <c r="BA3" s="8"/>
+      <c r="BB3" s="8"/>
+      <c r="BC3" s="8"/>
+      <c r="BD3" s="8"/>
+      <c r="BE3" s="8"/>
+      <c r="BF3" s="8"/>
+      <c r="BG3" s="8"/>
+      <c r="BH3" s="8"/>
+      <c r="BI3" s="8"/>
+      <c r="BJ3" s="8"/>
+    </row>
+    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>1111111</v>
       </c>
@@ -1128,8 +1161,8 @@
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="26"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="40"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
       <c r="K4" s="27"/>
       <c r="L4" s="27"/>
       <c r="M4" s="27"/>
@@ -1139,11 +1172,12 @@
       <c r="Q4" s="6"/>
       <c r="R4" s="20"/>
       <c r="S4" s="6"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="6"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="T4" s="48"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="6"/>
+    </row>
+    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -1163,11 +1197,12 @@
       <c r="Q5" s="6"/>
       <c r="R5" s="20"/>
       <c r="S5" s="6"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="47"/>
-      <c r="V5" s="6"/>
-    </row>
-    <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T5" s="48"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="6"/>
+    </row>
+    <row r="6" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -1187,11 +1222,12 @@
       <c r="Q6" s="2"/>
       <c r="R6" s="21"/>
       <c r="S6" s="6"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="6"/>
-    </row>
-    <row r="7" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="T6" s="48"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="6"/>
+    </row>
+    <row r="7" spans="1:62" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -1210,10 +1246,11 @@
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="47"/>
-    </row>
-    <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T7" s="48"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="43"/>
+    </row>
+    <row r="8" spans="1:62" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16"/>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -1232,10 +1269,11 @@
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="47"/>
-    </row>
-    <row r="9" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T8" s="48"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="43"/>
+    </row>
+    <row r="9" spans="1:62" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H9" s="26"/>
       <c r="I9" s="27"/>
       <c r="J9" s="27"/>
@@ -1248,10 +1286,11 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="50"/>
-    </row>
-    <row r="10" spans="1:23" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="T9" s="49"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="44"/>
+    </row>
+    <row r="10" spans="1:62" ht="27.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
@@ -1269,9 +1308,9 @@
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
-      <c r="U10" s="6"/>
-    </row>
-    <row r="11" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V10" s="6"/>
+    </row>
+    <row r="11" spans="1:62" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
         <v>1</v>
       </c>
@@ -1293,10 +1332,10 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
-      <c r="U11" s="6"/>
-    </row>
-    <row r="12" spans="1:23" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33">
+      <c r="V11" s="6"/>
+    </row>
+    <row r="12" spans="1:62" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="32">
         <v>15167798</v>
       </c>
       <c r="B12" s="27">
@@ -1305,9 +1344,9 @@
       <c r="C12" s="28" t="b">
         <v>0</v>
       </c>
-      <c r="U12" s="6"/>
-    </row>
-    <row r="13" spans="1:23" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="V12" s="6"/>
+    </row>
+    <row r="13" spans="1:62" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="26"/>
       <c r="B13" s="27"/>
       <c r="C13" s="28"/>
@@ -1317,10 +1356,11 @@
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
-    </row>
-    <row r="14" spans="1:23" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W13" s="6"/>
+    </row>
+    <row r="14" spans="1:62" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="26"/>
-      <c r="B14" s="32"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="28"/>
       <c r="E14" s="3" t="s">
         <v>16</v>
@@ -1331,63 +1371,63 @@
       <c r="G14" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="U14" s="6"/>
-    </row>
-    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V14" s="6"/>
+    </row>
+    <row r="15" spans="1:62" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26"/>
       <c r="B15" s="27"/>
       <c r="C15" s="28"/>
       <c r="E15" s="5">
         <v>123</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="36">
         <v>42794</v>
       </c>
-      <c r="G15" s="39">
+      <c r="G15" s="37">
         <v>42824</v>
       </c>
-      <c r="U15" s="6"/>
-    </row>
-    <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V15" s="6"/>
+    </row>
+    <row r="16" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
       <c r="B16" s="27"/>
       <c r="C16" s="28"/>
       <c r="E16" s="5"/>
       <c r="F16" s="6"/>
       <c r="G16" s="20"/>
-      <c r="J16" s="35"/>
-      <c r="U16" s="6"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="J16" s="6"/>
+      <c r="V16" s="6"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
       <c r="B17" s="27"/>
       <c r="C17" s="28"/>
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
       <c r="G17" s="20"/>
-      <c r="U17" s="6"/>
-    </row>
-    <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V17" s="6"/>
+    </row>
+    <row r="18" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="29"/>
       <c r="B18" s="30"/>
       <c r="C18" s="31"/>
       <c r="E18" s="5"/>
       <c r="F18" s="6"/>
       <c r="G18" s="20"/>
-      <c r="U18" s="6"/>
-    </row>
-    <row r="19" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="V18" s="6"/>
+    </row>
+    <row r="19" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E19" s="5"/>
       <c r="F19" s="6"/>
       <c r="G19" s="20"/>
-      <c r="U19" s="6"/>
-    </row>
-    <row r="20" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V19" s="6"/>
+    </row>
+    <row r="20" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E20" s="7"/>
       <c r="F20" s="2"/>
       <c r="G20" s="21"/>
     </row>
-    <row r="21" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1"/>
